--- a/testing/Test1.xlsx
+++ b/testing/Test1.xlsx
@@ -58,7 +58,7 @@
     <t>29.3.2018</t>
   </si>
   <si>
-    <t>11:43</t>
+    <t>11:51</t>
   </si>
   <si>
     <t>Stromwerte LED1</t>
